--- a/data/時間割マスタ.xlsx
+++ b/data/時間割マスタ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="56">
   <si>
     <t>曜日</t>
   </si>
@@ -64,6 +64,12 @@
     <t>B組</t>
   </si>
   <si>
+    <t>C組</t>
+  </si>
+  <si>
+    <t>D組</t>
+  </si>
+  <si>
     <t>1限</t>
   </si>
   <si>
@@ -73,100 +79,109 @@
     <t>3限</t>
   </si>
   <si>
-    <t>生活</t>
+    <t>4限</t>
+  </si>
+  <si>
+    <t>5限</t>
+  </si>
+  <si>
+    <t>6限</t>
+  </si>
+  <si>
+    <t>美術</t>
+  </si>
+  <si>
+    <t>歴史</t>
+  </si>
+  <si>
+    <t>政治経済</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>情報</t>
+  </si>
+  <si>
+    <t>倫理</t>
   </si>
   <si>
     <t>数 A/ B/ C</t>
   </si>
   <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>情報</t>
+    <t>家庭科</t>
   </si>
   <si>
     <t>総合</t>
   </si>
   <si>
-    <t>美術</t>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>学活</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>音楽</t>
+  </si>
+  <si>
+    <t>現代文</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>古文</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>自習</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>漢文</t>
+  </si>
+  <si>
+    <t>保健</t>
   </si>
   <si>
     <t>英語</t>
   </si>
   <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>政治経済</t>
-  </si>
-  <si>
-    <t>古文</t>
-  </si>
-  <si>
-    <t>倫理</t>
-  </si>
-  <si>
-    <t>現代文</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>漢文</t>
-  </si>
-  <si>
-    <t>学活</t>
-  </si>
-  <si>
-    <t>自習</t>
-  </si>
-  <si>
-    <t>音楽</t>
-  </si>
-  <si>
-    <t>保健</t>
-  </si>
-  <si>
-    <t>歴史</t>
-  </si>
-  <si>
     <t>数Ⅰ/ Ⅱ/ Ⅲ</t>
-  </si>
-  <si>
-    <t>家庭科</t>
   </si>
   <si>
     <t>特講</t>
   </si>
   <si>
-    <t>小東先生</t>
+    <t>田代先生</t>
+  </si>
+  <si>
+    <t>齋須先生</t>
   </si>
   <si>
     <t>川原先生</t>
   </si>
   <si>
-    <t>田代先生</t>
+    <t>山野先生</t>
+  </si>
+  <si>
+    <t>土屋先生</t>
   </si>
   <si>
     <t>中山先生</t>
   </si>
   <si>
-    <t>齋須先生</t>
-  </si>
-  <si>
-    <t>土屋先生</t>
-  </si>
-  <si>
-    <t>山野先生</t>
+    <t>小東先生</t>
   </si>
 </sst>
 </file>
@@ -524,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,13 +576,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -581,13 +596,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -601,13 +616,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -618,16 +633,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -638,16 +653,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -658,16 +673,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -675,19 +690,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -695,19 +710,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -715,19 +730,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -735,19 +750,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -755,19 +770,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -775,19 +790,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -795,19 +810,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -815,19 +830,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -835,19 +850,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -855,19 +870,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -875,19 +890,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -895,144 +910,144 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1041,18 +1056,18 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1061,18 +1076,18 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1081,30 +1096,30 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
@@ -1112,279 +1127,279 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
         <v>49</v>
@@ -1392,127 +1407,127 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -1521,18 +1536,18 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -1541,18 +1556,18 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -1561,250 +1576,250 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
         <v>49</v>
@@ -1812,187 +1827,187 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -2001,18 +2016,18 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -2021,18 +2036,18 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -2041,313 +2056,5713 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>44</v>
+      </c>
+      <c r="F147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" t="s">
+        <v>44</v>
+      </c>
+      <c r="F148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" t="s">
+        <v>39</v>
+      </c>
+      <c r="F150" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" t="s">
+        <v>45</v>
+      </c>
+      <c r="F151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F152" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" t="s">
+        <v>46</v>
+      </c>
+      <c r="F156" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" t="s">
+        <v>45</v>
+      </c>
+      <c r="F158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" t="s">
+        <v>47</v>
+      </c>
+      <c r="F159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" t="s">
+        <v>47</v>
+      </c>
+      <c r="F160" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>47</v>
+      </c>
+      <c r="F164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" t="s">
+        <v>35</v>
+      </c>
+      <c r="F167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" t="s">
+        <v>32</v>
+      </c>
+      <c r="F169" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" t="s">
+        <v>46</v>
+      </c>
+      <c r="F171" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" t="s">
+        <v>47</v>
+      </c>
+      <c r="F174" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" t="s">
+        <v>35</v>
+      </c>
+      <c r="F175" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" t="s">
+        <v>33</v>
+      </c>
+      <c r="F177" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" t="s">
+        <v>33</v>
+      </c>
+      <c r="F178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179" t="s">
+        <v>43</v>
+      </c>
+      <c r="F179" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182" t="s">
+        <v>32</v>
+      </c>
+      <c r="F182" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>21</v>
+      </c>
+      <c r="E185" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" t="s">
+        <v>27</v>
+      </c>
+      <c r="F186" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" t="s">
+        <v>40</v>
+      </c>
+      <c r="F188" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" t="s">
+        <v>43</v>
+      </c>
+      <c r="F189" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" t="s">
+        <v>43</v>
+      </c>
+      <c r="F192" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" t="s">
+        <v>37</v>
+      </c>
+      <c r="F193" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" t="s">
+        <v>41</v>
+      </c>
+      <c r="F194" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" t="s">
+        <v>30</v>
+      </c>
+      <c r="F195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" t="s">
+        <v>45</v>
+      </c>
+      <c r="F196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" t="s">
+        <v>21</v>
+      </c>
+      <c r="E197" t="s">
+        <v>36</v>
+      </c>
+      <c r="F197" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" t="s">
+        <v>46</v>
+      </c>
+      <c r="F198" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" t="s">
+        <v>43</v>
+      </c>
+      <c r="F200" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" t="s">
+        <v>32</v>
+      </c>
+      <c r="F201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" t="s">
+        <v>45</v>
+      </c>
+      <c r="F203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204" t="s">
+        <v>46</v>
+      </c>
+      <c r="F204" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" t="s">
+        <v>42</v>
+      </c>
+      <c r="F205" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" t="s">
+        <v>28</v>
+      </c>
+      <c r="F207" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" t="s">
+        <v>40</v>
+      </c>
+      <c r="F208" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>21</v>
+      </c>
+      <c r="E209" t="s">
+        <v>40</v>
+      </c>
+      <c r="F209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210" t="s">
+        <v>44</v>
+      </c>
+      <c r="F210" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" t="s">
+        <v>37</v>
+      </c>
+      <c r="F211" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" t="s">
+        <v>24</v>
+      </c>
+      <c r="F213" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" t="s">
+        <v>21</v>
+      </c>
+      <c r="E215" t="s">
+        <v>45</v>
+      </c>
+      <c r="F215" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" t="s">
+        <v>27</v>
+      </c>
+      <c r="F217" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" t="s">
+        <v>48</v>
+      </c>
+      <c r="F218" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219" t="s">
+        <v>47</v>
+      </c>
+      <c r="F219" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" t="s">
+        <v>40</v>
+      </c>
+      <c r="F220" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" t="s">
+        <v>21</v>
+      </c>
+      <c r="E221" t="s">
+        <v>35</v>
+      </c>
+      <c r="F221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" t="s">
+        <v>33</v>
+      </c>
+      <c r="F222" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" t="s">
+        <v>23</v>
+      </c>
+      <c r="E223" t="s">
+        <v>36</v>
+      </c>
+      <c r="F223" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" t="s">
+        <v>38</v>
+      </c>
+      <c r="F224" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225" t="s">
+        <v>28</v>
+      </c>
+      <c r="F225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226" t="s">
+        <v>38</v>
+      </c>
+      <c r="F226" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" t="s">
+        <v>37</v>
+      </c>
+      <c r="F227" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" t="s">
+        <v>47</v>
+      </c>
+      <c r="F228" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229" t="s">
+        <v>47</v>
+      </c>
+      <c r="F229" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>18</v>
+      </c>
+      <c r="E230" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231" t="s">
+        <v>43</v>
+      </c>
+      <c r="F231" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" t="s">
+        <v>41</v>
+      </c>
+      <c r="F232" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>21</v>
+      </c>
+      <c r="E233" t="s">
+        <v>40</v>
+      </c>
+      <c r="F233" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" t="s">
+        <v>42</v>
+      </c>
+      <c r="F234" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" t="s">
+        <v>32</v>
+      </c>
+      <c r="F235" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" t="s">
+        <v>24</v>
+      </c>
+      <c r="F236" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" t="s">
+        <v>19</v>
+      </c>
+      <c r="E237" t="s">
+        <v>25</v>
+      </c>
+      <c r="F237" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" t="s">
+        <v>36</v>
+      </c>
+      <c r="F238" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" t="s">
+        <v>21</v>
+      </c>
+      <c r="E239" t="s">
+        <v>39</v>
+      </c>
+      <c r="F239" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" t="s">
+        <v>24</v>
+      </c>
+      <c r="F240" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" t="s">
+        <v>23</v>
+      </c>
+      <c r="E241" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" t="s">
+        <v>18</v>
+      </c>
+      <c r="E242" t="s">
+        <v>36</v>
+      </c>
+      <c r="F242" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" t="s">
+        <v>19</v>
+      </c>
+      <c r="E243" t="s">
+        <v>41</v>
+      </c>
+      <c r="F243" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>43</v>
+      </c>
+      <c r="F244" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" t="s">
+        <v>21</v>
+      </c>
+      <c r="E245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" t="s">
+        <v>22</v>
+      </c>
+      <c r="E246" t="s">
+        <v>28</v>
+      </c>
+      <c r="F246" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" t="s">
+        <v>23</v>
+      </c>
+      <c r="E247" t="s">
+        <v>39</v>
+      </c>
+      <c r="F247" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>15</v>
+      </c>
+      <c r="D248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>36</v>
+      </c>
+      <c r="F248" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" t="s">
+        <v>36</v>
+      </c>
+      <c r="F249" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" t="s">
+        <v>26</v>
+      </c>
+      <c r="F250" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" t="s">
+        <v>21</v>
+      </c>
+      <c r="E251" t="s">
+        <v>41</v>
+      </c>
+      <c r="F251" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" t="s">
+        <v>46</v>
+      </c>
+      <c r="F252" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" t="s">
+        <v>44</v>
+      </c>
+      <c r="F253" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" t="s">
+        <v>47</v>
+      </c>
+      <c r="F254" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" t="s">
+        <v>47</v>
+      </c>
+      <c r="F255" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" t="s">
+        <v>45</v>
+      </c>
+      <c r="F256" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+      <c r="E257" t="s">
+        <v>46</v>
+      </c>
+      <c r="F257" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" t="s">
+        <v>45</v>
+      </c>
+      <c r="F258" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>9</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" t="s">
+        <v>23</v>
+      </c>
+      <c r="E259" t="s">
+        <v>24</v>
+      </c>
+      <c r="F259" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" t="s">
+        <v>18</v>
+      </c>
+      <c r="E260" t="s">
+        <v>35</v>
+      </c>
+      <c r="F260" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" t="s">
+        <v>30</v>
+      </c>
+      <c r="F261" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>17</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>24</v>
+      </c>
+      <c r="F262" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263" t="s">
+        <v>47</v>
+      </c>
+      <c r="F263" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" t="s">
+        <v>47</v>
+      </c>
+      <c r="F264" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>17</v>
+      </c>
+      <c r="D265" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265" t="s">
+        <v>42</v>
+      </c>
+      <c r="F265" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>14</v>
+      </c>
+      <c r="D266" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266" t="s">
+        <v>35</v>
+      </c>
+      <c r="F266" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" t="s">
+        <v>46</v>
+      </c>
+      <c r="F267" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" t="s">
+        <v>20</v>
+      </c>
+      <c r="E268" t="s">
+        <v>27</v>
+      </c>
+      <c r="F268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" t="s">
+        <v>21</v>
+      </c>
+      <c r="E269" t="s">
+        <v>28</v>
+      </c>
+      <c r="F269" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" t="s">
+        <v>36</v>
+      </c>
+      <c r="F270" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271" t="s">
+        <v>23</v>
+      </c>
+      <c r="E271" t="s">
+        <v>43</v>
+      </c>
+      <c r="F271" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272" t="s">
+        <v>18</v>
+      </c>
+      <c r="E272" t="s">
+        <v>42</v>
+      </c>
+      <c r="F272" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273" t="s">
+        <v>39</v>
+      </c>
+      <c r="F273" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>15</v>
+      </c>
+      <c r="D274" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274" t="s">
+        <v>39</v>
+      </c>
+      <c r="F274" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" t="s">
+        <v>21</v>
+      </c>
+      <c r="E275" t="s">
+        <v>40</v>
+      </c>
+      <c r="F275" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" t="s">
+        <v>22</v>
+      </c>
+      <c r="E276" t="s">
+        <v>28</v>
+      </c>
+      <c r="F276" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" t="s">
+        <v>36</v>
+      </c>
+      <c r="F277" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>16</v>
+      </c>
+      <c r="D278" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" t="s">
+        <v>24</v>
+      </c>
+      <c r="F278" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279" t="s">
+        <v>24</v>
+      </c>
+      <c r="F279" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" t="s">
+        <v>20</v>
+      </c>
+      <c r="E280" t="s">
+        <v>35</v>
+      </c>
+      <c r="F280" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" t="s">
+        <v>21</v>
+      </c>
+      <c r="E281" t="s">
+        <v>33</v>
+      </c>
+      <c r="F281" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" t="s">
+        <v>22</v>
+      </c>
+      <c r="E282" t="s">
+        <v>37</v>
+      </c>
+      <c r="F282" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" t="s">
+        <v>33</v>
+      </c>
+      <c r="F283" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" t="s">
+        <v>28</v>
+      </c>
+      <c r="F284" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" t="s">
+        <v>42</v>
+      </c>
+      <c r="F285" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286" t="s">
+        <v>20</v>
+      </c>
+      <c r="E286" t="s">
+        <v>30</v>
+      </c>
+      <c r="F286" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" t="s">
+        <v>21</v>
+      </c>
+      <c r="E287" t="s">
+        <v>37</v>
+      </c>
+      <c r="F287" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>9</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" t="s">
+        <v>22</v>
+      </c>
+      <c r="E288" t="s">
+        <v>46</v>
+      </c>
+      <c r="F288" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" t="s">
+        <v>23</v>
+      </c>
+      <c r="E289" t="s">
+        <v>28</v>
+      </c>
+      <c r="F289" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
         <v>10</v>
       </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s">
         <v>18</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E290" t="s">
+        <v>35</v>
+      </c>
+      <c r="F290" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291" t="s">
+        <v>46</v>
+      </c>
+      <c r="F291" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" t="s">
+        <v>46</v>
+      </c>
+      <c r="F292" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
+        <v>21</v>
+      </c>
+      <c r="E293" t="s">
+        <v>34</v>
+      </c>
+      <c r="F293" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s">
+        <v>22</v>
+      </c>
+      <c r="E294" t="s">
+        <v>33</v>
+      </c>
+      <c r="F294" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" t="s">
+        <v>24</v>
+      </c>
+      <c r="F295" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296" t="s">
+        <v>18</v>
+      </c>
+      <c r="E296" t="s">
+        <v>38</v>
+      </c>
+      <c r="F296" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" t="s">
+        <v>33</v>
+      </c>
+      <c r="F297" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298" t="s">
+        <v>20</v>
+      </c>
+      <c r="E298" t="s">
+        <v>28</v>
+      </c>
+      <c r="F298" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299" t="s">
+        <v>21</v>
+      </c>
+      <c r="E299" t="s">
+        <v>33</v>
+      </c>
+      <c r="F299" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" t="s">
+        <v>22</v>
+      </c>
+      <c r="E300" t="s">
+        <v>31</v>
+      </c>
+      <c r="F300" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" t="s">
+        <v>23</v>
+      </c>
+      <c r="E301" t="s">
+        <v>47</v>
+      </c>
+      <c r="F301" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302" t="s">
+        <v>18</v>
+      </c>
+      <c r="E302" t="s">
+        <v>41</v>
+      </c>
+      <c r="F302" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" t="s">
+        <v>16</v>
+      </c>
+      <c r="D303" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" t="s">
+        <v>34</v>
+      </c>
+      <c r="F303" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304" t="s">
         <v>29</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F304" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" t="s">
+        <v>21</v>
+      </c>
+      <c r="E305" t="s">
+        <v>37</v>
+      </c>
+      <c r="F305" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" t="s">
+        <v>32</v>
+      </c>
+      <c r="F306" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" t="s">
+        <v>16</v>
+      </c>
+      <c r="D307" t="s">
+        <v>23</v>
+      </c>
+      <c r="E307" t="s">
+        <v>37</v>
+      </c>
+      <c r="F307" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308" t="s">
+        <v>17</v>
+      </c>
+      <c r="D308" t="s">
+        <v>18</v>
+      </c>
+      <c r="E308" t="s">
+        <v>27</v>
+      </c>
+      <c r="F308" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" t="s">
+        <v>17</v>
+      </c>
+      <c r="D309" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309" t="s">
+        <v>37</v>
+      </c>
+      <c r="F309" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" t="s">
+        <v>43</v>
+      </c>
+      <c r="F310" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311" t="s">
+        <v>17</v>
+      </c>
+      <c r="D311" t="s">
+        <v>21</v>
+      </c>
+      <c r="E311" t="s">
+        <v>36</v>
+      </c>
+      <c r="F311" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" t="s">
+        <v>17</v>
+      </c>
+      <c r="D312" t="s">
+        <v>22</v>
+      </c>
+      <c r="E312" t="s">
+        <v>24</v>
+      </c>
+      <c r="F312" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" t="s">
+        <v>17</v>
+      </c>
+      <c r="D313" t="s">
+        <v>23</v>
+      </c>
+      <c r="E313" t="s">
+        <v>47</v>
+      </c>
+      <c r="F313" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" t="s">
+        <v>18</v>
+      </c>
+      <c r="E314" t="s">
+        <v>35</v>
+      </c>
+      <c r="F314" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" t="s">
+        <v>24</v>
+      </c>
+      <c r="F315" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" t="s">
+        <v>20</v>
+      </c>
+      <c r="E316" t="s">
+        <v>46</v>
+      </c>
+      <c r="F316" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" t="s">
+        <v>21</v>
+      </c>
+      <c r="E317" t="s">
+        <v>39</v>
+      </c>
+      <c r="F317" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>14</v>
+      </c>
+      <c r="D318" t="s">
+        <v>22</v>
+      </c>
+      <c r="E318" t="s">
+        <v>34</v>
+      </c>
+      <c r="F318" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" t="s">
+        <v>23</v>
+      </c>
+      <c r="E319" t="s">
+        <v>42</v>
+      </c>
+      <c r="F319" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320" t="s">
+        <v>24</v>
+      </c>
+      <c r="F320" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" t="s">
+        <v>19</v>
+      </c>
+      <c r="E321" t="s">
+        <v>26</v>
+      </c>
+      <c r="F321" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" t="s">
+        <v>20</v>
+      </c>
+      <c r="E322" t="s">
+        <v>41</v>
+      </c>
+      <c r="F322" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>10</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" t="s">
+        <v>15</v>
+      </c>
+      <c r="D323" t="s">
+        <v>21</v>
+      </c>
+      <c r="E323" t="s">
+        <v>29</v>
+      </c>
+      <c r="F323" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" t="s">
+        <v>22</v>
+      </c>
+      <c r="E324" t="s">
+        <v>40</v>
+      </c>
+      <c r="F324" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325" t="s">
+        <v>23</v>
+      </c>
+      <c r="E325" t="s">
+        <v>32</v>
+      </c>
+      <c r="F325" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" t="s">
+        <v>18</v>
+      </c>
+      <c r="E326" t="s">
+        <v>28</v>
+      </c>
+      <c r="F326" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" t="s">
+        <v>19</v>
+      </c>
+      <c r="E327" t="s">
+        <v>33</v>
+      </c>
+      <c r="F327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" t="s">
+        <v>16</v>
+      </c>
+      <c r="D328" t="s">
+        <v>20</v>
+      </c>
+      <c r="E328" t="s">
+        <v>28</v>
+      </c>
+      <c r="F328" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" t="s">
+        <v>21</v>
+      </c>
+      <c r="E329" t="s">
+        <v>43</v>
+      </c>
+      <c r="F329" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>16</v>
+      </c>
+      <c r="D330" t="s">
+        <v>22</v>
+      </c>
+      <c r="E330" t="s">
+        <v>36</v>
+      </c>
+      <c r="F330" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>16</v>
+      </c>
+      <c r="D331" t="s">
+        <v>23</v>
+      </c>
+      <c r="E331" t="s">
+        <v>43</v>
+      </c>
+      <c r="F331" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" t="s">
+        <v>17</v>
+      </c>
+      <c r="D332" t="s">
+        <v>18</v>
+      </c>
+      <c r="E332" t="s">
+        <v>45</v>
+      </c>
+      <c r="F332" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" t="s">
+        <v>17</v>
+      </c>
+      <c r="D333" t="s">
+        <v>19</v>
+      </c>
+      <c r="E333" t="s">
+        <v>32</v>
+      </c>
+      <c r="F333" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" t="s">
+        <v>17</v>
+      </c>
+      <c r="D334" t="s">
+        <v>20</v>
+      </c>
+      <c r="E334" t="s">
+        <v>35</v>
+      </c>
+      <c r="F334" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335" t="s">
+        <v>21</v>
+      </c>
+      <c r="E335" t="s">
+        <v>36</v>
+      </c>
+      <c r="F335" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" t="s">
+        <v>22</v>
+      </c>
+      <c r="E336" t="s">
+        <v>33</v>
+      </c>
+      <c r="F336" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" t="s">
+        <v>17</v>
+      </c>
+      <c r="D337" t="s">
+        <v>23</v>
+      </c>
+      <c r="E337" t="s">
+        <v>25</v>
+      </c>
+      <c r="F337" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338" t="s">
+        <v>14</v>
+      </c>
+      <c r="D338" t="s">
+        <v>18</v>
+      </c>
+      <c r="E338" t="s">
+        <v>25</v>
+      </c>
+      <c r="F338" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339" t="s">
+        <v>47</v>
+      </c>
+      <c r="F339" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340" t="s">
+        <v>30</v>
+      </c>
+      <c r="F340" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" t="s">
+        <v>13</v>
+      </c>
+      <c r="C341" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" t="s">
+        <v>21</v>
+      </c>
+      <c r="E341" t="s">
+        <v>47</v>
+      </c>
+      <c r="F341" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" t="s">
+        <v>14</v>
+      </c>
+      <c r="D342" t="s">
+        <v>22</v>
+      </c>
+      <c r="E342" t="s">
+        <v>35</v>
+      </c>
+      <c r="F342" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343" t="s">
+        <v>14</v>
+      </c>
+      <c r="D343" t="s">
+        <v>23</v>
+      </c>
+      <c r="E343" t="s">
+        <v>28</v>
+      </c>
+      <c r="F343" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>13</v>
+      </c>
+      <c r="C344" t="s">
+        <v>15</v>
+      </c>
+      <c r="D344" t="s">
+        <v>18</v>
+      </c>
+      <c r="E344" t="s">
+        <v>36</v>
+      </c>
+      <c r="F344" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" t="s">
+        <v>13</v>
+      </c>
+      <c r="C345" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" t="s">
+        <v>19</v>
+      </c>
+      <c r="E345" t="s">
+        <v>39</v>
+      </c>
+      <c r="F345" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="s">
+        <v>10</v>
+      </c>
+      <c r="B346" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346" t="s">
+        <v>15</v>
+      </c>
+      <c r="D346" t="s">
+        <v>20</v>
+      </c>
+      <c r="E346" t="s">
+        <v>32</v>
+      </c>
+      <c r="F346" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>13</v>
+      </c>
+      <c r="C347" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" t="s">
+        <v>21</v>
+      </c>
+      <c r="E347" t="s">
+        <v>39</v>
+      </c>
+      <c r="F347" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348" t="s">
+        <v>15</v>
+      </c>
+      <c r="D348" t="s">
+        <v>22</v>
+      </c>
+      <c r="E348" t="s">
+        <v>43</v>
+      </c>
+      <c r="F348" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" t="s">
+        <v>13</v>
+      </c>
+      <c r="C349" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" t="s">
+        <v>23</v>
+      </c>
+      <c r="E349" t="s">
+        <v>32</v>
+      </c>
+      <c r="F349" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" t="s">
+        <v>16</v>
+      </c>
+      <c r="D350" t="s">
+        <v>18</v>
+      </c>
+      <c r="E350" t="s">
+        <v>28</v>
+      </c>
+      <c r="F350" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351" t="s">
+        <v>16</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351" t="s">
+        <v>35</v>
+      </c>
+      <c r="F351" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>13</v>
+      </c>
+      <c r="C352" t="s">
+        <v>16</v>
+      </c>
+      <c r="D352" t="s">
+        <v>20</v>
+      </c>
+      <c r="E352" t="s">
+        <v>37</v>
+      </c>
+      <c r="F352" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353" t="s">
+        <v>16</v>
+      </c>
+      <c r="D353" t="s">
+        <v>21</v>
+      </c>
+      <c r="E353" t="s">
+        <v>33</v>
+      </c>
+      <c r="F353" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354" t="s">
+        <v>16</v>
+      </c>
+      <c r="D354" t="s">
+        <v>22</v>
+      </c>
+      <c r="E354" t="s">
+        <v>41</v>
+      </c>
+      <c r="F354" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" t="s">
+        <v>16</v>
+      </c>
+      <c r="D355" t="s">
+        <v>23</v>
+      </c>
+      <c r="E355" t="s">
+        <v>32</v>
+      </c>
+      <c r="F355" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" t="s">
+        <v>17</v>
+      </c>
+      <c r="D356" t="s">
+        <v>18</v>
+      </c>
+      <c r="E356" t="s">
+        <v>39</v>
+      </c>
+      <c r="F356" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357" t="s">
+        <v>17</v>
+      </c>
+      <c r="D357" t="s">
+        <v>19</v>
+      </c>
+      <c r="E357" t="s">
+        <v>32</v>
+      </c>
+      <c r="F357" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>10</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358" t="s">
+        <v>17</v>
+      </c>
+      <c r="D358" t="s">
+        <v>20</v>
+      </c>
+      <c r="E358" t="s">
+        <v>29</v>
+      </c>
+      <c r="F358" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" t="s">
+        <v>13</v>
+      </c>
+      <c r="C359" t="s">
+        <v>17</v>
+      </c>
+      <c r="D359" t="s">
+        <v>21</v>
+      </c>
+      <c r="E359" t="s">
+        <v>32</v>
+      </c>
+      <c r="F359" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360" t="s">
+        <v>17</v>
+      </c>
+      <c r="D360" t="s">
+        <v>22</v>
+      </c>
+      <c r="E360" t="s">
+        <v>41</v>
+      </c>
+      <c r="F360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" t="s">
+        <v>13</v>
+      </c>
+      <c r="C361" t="s">
+        <v>17</v>
+      </c>
+      <c r="D361" t="s">
+        <v>23</v>
+      </c>
+      <c r="E361" t="s">
+        <v>44</v>
+      </c>
+      <c r="F361" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/時間割マスタ.xlsx
+++ b/data/時間割マスタ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="68">
   <si>
     <t>曜日</t>
   </si>
@@ -37,13 +37,13 @@
     <t>月</t>
   </si>
   <si>
-    <t>火</t>
+    <t>木</t>
   </si>
   <si>
     <t>水</t>
   </si>
   <si>
-    <t>木</t>
+    <t>火</t>
   </si>
   <si>
     <t>金</t>
@@ -88,46 +88,61 @@
     <t>6限</t>
   </si>
   <si>
-    <t>美術</t>
+    <t>その他</t>
   </si>
   <si>
-    <t>歴史</t>
+    <t>自習</t>
+  </si>
+  <si>
+    <t>特講</t>
   </si>
   <si>
     <t>政治経済</t>
   </si>
   <si>
+    <t>美術</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
     <t>体育</t>
+  </si>
+  <si>
+    <t>漢文</t>
+  </si>
+  <si>
+    <t>総合</t>
+  </si>
+  <si>
+    <t>数 A/ B/ C</t>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>保健</t>
   </si>
   <si>
     <t>情報</t>
   </si>
   <si>
-    <t>倫理</t>
+    <t>音楽</t>
   </si>
   <si>
-    <t>数 A/ B/ C</t>
-  </si>
-  <si>
-    <t>家庭科</t>
-  </si>
-  <si>
-    <t>総合</t>
+    <t>化学</t>
   </si>
   <si>
     <t>物理</t>
   </si>
   <si>
-    <t>学活</t>
+    <t>古文</t>
   </si>
   <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>音楽</t>
+    <t>学活</t>
   </si>
   <si>
     <t>現代文</t>
@@ -136,52 +151,73 @@
     <t>生物</t>
   </si>
   <si>
-    <t>古文</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>自習</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>漢文</t>
-  </si>
-  <si>
-    <t>保健</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
     <t>数Ⅰ/ Ⅱ/ Ⅲ</t>
   </si>
   <si>
-    <t>特講</t>
+    <t>家庭科</t>
+  </si>
+  <si>
+    <t>歴史</t>
+  </si>
+  <si>
+    <t>倫理</t>
   </si>
   <si>
     <t>田代先生</t>
   </si>
   <si>
+    <t>桜木先生</t>
+  </si>
+  <si>
     <t>齋須先生</t>
+  </si>
+  <si>
+    <t>赤木先生</t>
+  </si>
+  <si>
+    <t>土屋先生</t>
+  </si>
+  <si>
+    <t>高原先生</t>
+  </si>
+  <si>
+    <t>山野先生</t>
+  </si>
+  <si>
+    <t>竹内先生</t>
+  </si>
+  <si>
+    <t>流川先生</t>
+  </si>
+  <si>
+    <t>魚住先生</t>
+  </si>
+  <si>
+    <t>小東先生</t>
+  </si>
+  <si>
+    <t>安西先生</t>
+  </si>
+  <si>
+    <t>中山先生</t>
   </si>
   <si>
     <t>川原先生</t>
   </si>
   <si>
-    <t>山野先生</t>
+    <t>仙道先生</t>
   </si>
   <si>
-    <t>土屋先生</t>
+    <t>那須先生</t>
   </si>
   <si>
-    <t>中山先生</t>
+    <t>富樫先生</t>
   </si>
   <si>
-    <t>小東先生</t>
+    <t>柳先生</t>
+  </si>
+  <si>
+    <t>山田先生</t>
   </si>
 </sst>
 </file>
@@ -539,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -642,7 +678,7 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -662,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -682,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -702,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -722,7 +758,7 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -742,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -759,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -779,10 +815,10 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -799,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -819,10 +855,10 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -839,10 +875,10 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -859,10 +895,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -879,10 +915,10 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -899,10 +935,10 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -919,10 +955,10 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -939,10 +975,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -959,10 +995,10 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -979,10 +1015,10 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -999,10 +1035,10 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1016,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1036,13 +1072,13 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1050,19 +1086,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1076,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1096,13 +1132,13 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1116,13 +1152,13 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1136,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1156,13 +1192,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1173,16 +1209,16 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1193,16 +1229,16 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1216,13 +1252,13 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1236,13 +1272,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1256,13 +1292,13 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1276,13 +1312,13 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1293,16 +1329,16 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1313,16 +1349,16 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1336,13 +1372,13 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1356,13 +1392,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1376,13 +1412,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1396,13 +1432,13 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1413,16 +1449,16 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1433,16 +1469,16 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1453,16 +1489,16 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1476,13 +1512,13 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1496,13 +1532,13 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1516,13 +1552,13 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1530,19 +1566,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1550,19 +1586,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1570,19 +1606,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1596,13 +1632,13 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1616,13 +1652,13 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1636,13 +1672,13 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1653,16 +1689,16 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1673,16 +1709,16 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1693,16 +1729,16 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1716,13 +1752,13 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1736,13 +1772,13 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1756,13 +1792,13 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1773,16 +1809,16 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1793,16 +1829,16 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1813,16 +1849,16 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1836,13 +1872,13 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1856,13 +1892,13 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1876,13 +1912,13 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1893,16 +1929,16 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1913,16 +1949,16 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1933,13 +1969,13 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
         <v>51</v>
@@ -1956,13 +1992,13 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1976,13 +2012,13 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1996,50 +2032,50 @@
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
         <v>55</v>
@@ -2047,42 +2083,42 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2096,13 +2132,13 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2116,13 +2152,13 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2133,16 +2169,16 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2153,16 +2189,16 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2173,16 +2209,16 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2193,16 +2229,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2216,13 +2252,13 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2236,13 +2272,13 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2253,16 +2289,16 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2273,16 +2309,16 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2293,16 +2329,16 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2313,16 +2349,16 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2336,13 +2372,13 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2356,13 +2392,13 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2373,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2393,13 +2429,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
         <v>55</v>
@@ -2413,16 +2449,16 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2433,16 +2469,16 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
         <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2456,13 +2492,13 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2476,13 +2512,13 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2490,19 +2526,19 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2510,19 +2546,19 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2530,19 +2566,19 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2550,19 +2586,19 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2576,13 +2612,13 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
         <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2596,13 +2632,13 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2613,16 +2649,16 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2633,16 +2669,16 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2653,16 +2689,16 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2673,16 +2709,16 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2693,16 +2729,16 @@
         <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
         <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2713,16 +2749,16 @@
         <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2733,16 +2769,16 @@
         <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2753,16 +2789,16 @@
         <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2773,16 +2809,16 @@
         <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
         <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2793,16 +2829,16 @@
         <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2813,16 +2849,16 @@
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2833,16 +2869,16 @@
         <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
         <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2853,13 +2889,13 @@
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
         <v>52</v>
@@ -2873,16 +2909,16 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2893,16 +2929,16 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2913,16 +2949,16 @@
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2933,16 +2969,16 @@
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2953,16 +2989,16 @@
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2970,19 +3006,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2990,19 +3026,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3010,19 +3046,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3030,19 +3066,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3050,19 +3086,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3070,19 +3106,19 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3090,19 +3126,19 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3113,16 +3149,16 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3133,16 +3169,16 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3153,16 +3189,16 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3173,16 +3209,16 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3193,16 +3229,16 @@
         <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3213,16 +3249,16 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3233,16 +3269,16 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3253,16 +3289,16 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F136" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3273,16 +3309,16 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3293,16 +3329,16 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3313,16 +3349,16 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3333,16 +3369,16 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3353,16 +3389,16 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3373,16 +3409,16 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3393,16 +3429,16 @@
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E143" t="s">
         <v>24</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3413,16 +3449,16 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3433,156 +3469,156 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E146" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F148" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3593,16 +3629,16 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F153" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3613,16 +3649,16 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3633,16 +3669,16 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3653,16 +3689,16 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3673,16 +3709,16 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3693,16 +3729,16 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3713,16 +3749,16 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3733,16 +3769,16 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E160" t="s">
         <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3753,16 +3789,16 @@
         <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3773,16 +3809,16 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3793,16 +3829,16 @@
         <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3813,16 +3849,16 @@
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3833,16 +3869,16 @@
         <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E165" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3853,16 +3889,16 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3873,16 +3909,16 @@
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F167" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3893,16 +3929,16 @@
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3913,16 +3949,16 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3930,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3950,19 +3986,19 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3970,19 +4006,19 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E172" t="s">
         <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3990,19 +4026,19 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E173" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4010,19 +4046,19 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4030,19 +4066,19 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4050,19 +4086,19 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E176" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F176" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4070,16 +4106,16 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E177" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F177" t="s">
         <v>54</v>
@@ -4090,19 +4126,19 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4113,16 +4149,16 @@
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F179" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4133,16 +4169,16 @@
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4153,16 +4189,16 @@
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E181" t="s">
         <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4173,16 +4209,16 @@
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F182" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4193,16 +4229,16 @@
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E183" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4213,16 +4249,16 @@
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4233,16 +4269,16 @@
         <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4253,16 +4289,16 @@
         <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E186" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4273,16 +4309,16 @@
         <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E187" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4293,16 +4329,16 @@
         <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F188" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4313,16 +4349,16 @@
         <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4333,16 +4369,16 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4353,16 +4389,16 @@
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4373,16 +4409,16 @@
         <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4393,16 +4429,16 @@
         <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F193" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4410,19 +4446,19 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F194" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4430,19 +4466,19 @@
         <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4450,19 +4486,19 @@
         <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4470,16 +4506,16 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D197" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E197" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
         <v>55</v>
@@ -4490,19 +4526,19 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D198" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E198" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F198" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4510,16 +4546,16 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D199" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E199" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F199" t="s">
         <v>53</v>
@@ -4530,19 +4566,19 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E200" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4550,19 +4586,19 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D201" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E201" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4570,19 +4606,19 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4593,13 +4629,13 @@
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
         <v>50</v>
@@ -4613,16 +4649,16 @@
         <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4633,16 +4669,16 @@
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4653,16 +4689,16 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E206" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4673,16 +4709,16 @@
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D207" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E207" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4693,16 +4729,16 @@
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4713,16 +4749,16 @@
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4733,16 +4769,16 @@
         <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E210" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F210" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4753,16 +4789,16 @@
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E211" t="s">
         <v>37</v>
       </c>
       <c r="F211" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4773,16 +4809,16 @@
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F212" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4793,16 +4829,16 @@
         <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E213" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F213" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4813,16 +4849,16 @@
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F214" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4833,16 +4869,16 @@
         <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E215" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4853,16 +4889,16 @@
         <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E216" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4873,33 +4909,33 @@
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E217" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E218" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F218" t="s">
         <v>51</v>
@@ -4907,119 +4943,119 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E219" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F219" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E220" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F220" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D221" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E222" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F222" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D223" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F223" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
         <v>55</v>
@@ -5027,42 +5063,42 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E225" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F225" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D226" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F226" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5073,16 +5109,16 @@
         <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E227" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5093,16 +5129,16 @@
         <v>11</v>
       </c>
       <c r="C228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D228" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F228" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5113,16 +5149,16 @@
         <v>11</v>
       </c>
       <c r="C229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D229" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E229" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F229" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5133,16 +5169,16 @@
         <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F230" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5153,16 +5189,16 @@
         <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D231" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E231" t="s">
         <v>43</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5173,16 +5209,16 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D232" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5193,16 +5229,16 @@
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F233" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5213,16 +5249,16 @@
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D234" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E234" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F234" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5233,16 +5269,16 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E235" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F235" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5253,16 +5289,16 @@
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D236" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E236" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F236" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5273,16 +5309,16 @@
         <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F237" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5293,16 +5329,16 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E238" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5313,16 +5349,16 @@
         <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D239" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E239" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F239" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5333,16 +5369,16 @@
         <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E240" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5353,16 +5389,16 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E241" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F241" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5370,19 +5406,19 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E242" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F242" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5390,19 +5426,19 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5410,19 +5446,19 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E244" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5430,19 +5466,19 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E245" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F245" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5450,19 +5486,19 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D246" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E246" t="s">
         <v>28</v>
       </c>
       <c r="F246" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5470,19 +5506,19 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5490,19 +5526,19 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E248" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F248" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5510,19 +5546,19 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F249" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5530,19 +5566,19 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D250" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E250" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F250" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5550,19 +5586,19 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D251" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F251" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5570,19 +5606,19 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D252" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E252" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F252" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5593,16 +5629,16 @@
         <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E253" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F253" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5613,16 +5649,16 @@
         <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F254" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5633,16 +5669,16 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E255" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F255" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5653,16 +5689,16 @@
         <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D256" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E256" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F256" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5673,16 +5709,16 @@
         <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D257" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E257" t="s">
         <v>46</v>
       </c>
       <c r="F257" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5693,16 +5729,16 @@
         <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D258" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E258" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F258" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5713,16 +5749,16 @@
         <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E259" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F259" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5733,16 +5769,16 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D260" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E260" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F260" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5753,16 +5789,16 @@
         <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D261" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E261" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F261" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5773,16 +5809,16 @@
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E262" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F262" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5793,16 +5829,16 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D263" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E263" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5813,16 +5849,16 @@
         <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D264" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E264" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F264" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5833,16 +5869,16 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E265" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F265" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5850,19 +5886,19 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E266" t="s">
         <v>35</v>
       </c>
       <c r="F266" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5870,19 +5906,19 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D267" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E267" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F267" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5890,19 +5926,19 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E268" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5910,19 +5946,19 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E269" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F269" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5930,19 +5966,19 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E270" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F270" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5950,19 +5986,19 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D271" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E271" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F271" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5970,19 +6006,19 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D272" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E272" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F272" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5990,19 +6026,19 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D273" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E273" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6010,19 +6046,19 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C274" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D274" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E274" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F274" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6030,19 +6066,19 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E275" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F275" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6050,19 +6086,19 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D276" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E276" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F276" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6073,16 +6109,16 @@
         <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E277" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6093,16 +6129,16 @@
         <v>13</v>
       </c>
       <c r="C278" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E278" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F278" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6113,16 +6149,16 @@
         <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D279" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E279" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F279" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6133,16 +6169,16 @@
         <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E280" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F280" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6153,16 +6189,16 @@
         <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E281" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F281" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6173,13 +6209,13 @@
         <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E282" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F282" t="s">
         <v>55</v>
@@ -6193,16 +6229,16 @@
         <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D283" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E283" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F283" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6213,16 +6249,16 @@
         <v>13</v>
       </c>
       <c r="C284" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D284" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E284" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F284" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6233,16 +6269,16 @@
         <v>13</v>
       </c>
       <c r="C285" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D285" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E285" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F285" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6253,16 +6289,16 @@
         <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D286" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E286" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F286" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6273,16 +6309,16 @@
         <v>13</v>
       </c>
       <c r="C287" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D287" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E287" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F287" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6293,16 +6329,16 @@
         <v>13</v>
       </c>
       <c r="C288" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D288" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E288" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6313,153 +6349,153 @@
         <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D289" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E289" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F289" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E290" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F290" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D291" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E291" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F291" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E292" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F292" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E293" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F293" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C294" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D294" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E294" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F294" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D295" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E295" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F295" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E296" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F296" t="s">
         <v>49</v>
@@ -6467,59 +6503,59 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C297" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D297" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E297" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F297" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D298" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E298" t="s">
         <v>28</v>
       </c>
       <c r="F298" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D299" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E299" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F299" t="s">
         <v>50</v>
@@ -6527,22 +6563,22 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D300" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E300" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6553,16 +6589,16 @@
         <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E301" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F301" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6573,16 +6609,16 @@
         <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D302" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E302" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F302" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6593,16 +6629,16 @@
         <v>11</v>
       </c>
       <c r="C303" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D303" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E303" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F303" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6613,16 +6649,16 @@
         <v>11</v>
       </c>
       <c r="C304" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D304" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E304" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F304" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6633,16 +6669,16 @@
         <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E305" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F305" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6653,16 +6689,16 @@
         <v>11</v>
       </c>
       <c r="C306" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D306" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E306" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F306" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6673,16 +6709,16 @@
         <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D307" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E307" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F307" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6693,16 +6729,16 @@
         <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D308" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E308" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F308" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6713,13 +6749,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D309" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E309" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F309" t="s">
         <v>54</v>
@@ -6733,16 +6769,16 @@
         <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D310" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E310" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F310" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6753,16 +6789,16 @@
         <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D311" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E311" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F311" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6773,16 +6809,16 @@
         <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D312" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E312" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F312" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6793,16 +6829,16 @@
         <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D313" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E313" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F313" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6810,19 +6846,19 @@
         <v>10</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E314" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F314" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6830,19 +6866,19 @@
         <v>10</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E315" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F315" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6850,19 +6886,19 @@
         <v>10</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E316" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F316" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6870,19 +6906,19 @@
         <v>10</v>
       </c>
       <c r="B317" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E317" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F317" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6890,19 +6926,19 @@
         <v>10</v>
       </c>
       <c r="B318" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D318" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E318" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F318" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6910,19 +6946,19 @@
         <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D319" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E319" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F319" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6930,19 +6966,19 @@
         <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D320" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E320" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6950,19 +6986,19 @@
         <v>10</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D321" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E321" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F321" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6970,19 +7006,19 @@
         <v>10</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D322" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E322" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F322" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6990,19 +7026,19 @@
         <v>10</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D323" t="s">
         <v>21</v>
       </c>
       <c r="E323" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F323" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7010,19 +7046,19 @@
         <v>10</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D324" t="s">
         <v>22</v>
       </c>
       <c r="E324" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F324" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7030,19 +7066,19 @@
         <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D325" t="s">
         <v>23</v>
       </c>
       <c r="E325" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F325" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7053,16 +7089,16 @@
         <v>12</v>
       </c>
       <c r="C326" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D326" t="s">
         <v>18</v>
       </c>
       <c r="E326" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F326" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7073,16 +7109,16 @@
         <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D327" t="s">
         <v>19</v>
       </c>
       <c r="E327" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F327" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7093,16 +7129,16 @@
         <v>12</v>
       </c>
       <c r="C328" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D328" t="s">
         <v>20</v>
       </c>
       <c r="E328" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F328" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7113,16 +7149,16 @@
         <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D329" t="s">
         <v>21</v>
       </c>
       <c r="E329" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F329" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7133,16 +7169,16 @@
         <v>12</v>
       </c>
       <c r="C330" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D330" t="s">
         <v>22</v>
       </c>
       <c r="E330" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F330" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7153,16 +7189,16 @@
         <v>12</v>
       </c>
       <c r="C331" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D331" t="s">
         <v>23</v>
       </c>
       <c r="E331" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F331" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7173,16 +7209,16 @@
         <v>12</v>
       </c>
       <c r="C332" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D332" t="s">
         <v>18</v>
       </c>
       <c r="E332" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F332" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7193,16 +7229,16 @@
         <v>12</v>
       </c>
       <c r="C333" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D333" t="s">
         <v>19</v>
       </c>
       <c r="E333" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F333" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7213,16 +7249,16 @@
         <v>12</v>
       </c>
       <c r="C334" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D334" t="s">
         <v>20</v>
       </c>
       <c r="E334" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F334" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7233,16 +7269,16 @@
         <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D335" t="s">
         <v>21</v>
       </c>
       <c r="E335" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F335" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7253,16 +7289,16 @@
         <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D336" t="s">
         <v>22</v>
       </c>
       <c r="E336" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7273,13 +7309,13 @@
         <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D337" t="s">
         <v>23</v>
       </c>
       <c r="E337" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F337" t="s">
         <v>50</v>
@@ -7290,19 +7326,19 @@
         <v>10</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D338" t="s">
         <v>18</v>
       </c>
       <c r="E338" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F338" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7310,19 +7346,19 @@
         <v>10</v>
       </c>
       <c r="B339" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D339" t="s">
         <v>19</v>
       </c>
       <c r="E339" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F339" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7330,19 +7366,19 @@
         <v>10</v>
       </c>
       <c r="B340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D340" t="s">
         <v>20</v>
       </c>
       <c r="E340" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F340" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7350,19 +7386,19 @@
         <v>10</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C341" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D341" t="s">
         <v>21</v>
       </c>
       <c r="E341" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F341" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7370,19 +7406,19 @@
         <v>10</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D342" t="s">
         <v>22</v>
       </c>
       <c r="E342" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F342" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7390,19 +7426,19 @@
         <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D343" t="s">
         <v>23</v>
       </c>
       <c r="E343" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F343" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7410,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D344" t="s">
         <v>18</v>
@@ -7422,7 +7458,7 @@
         <v>36</v>
       </c>
       <c r="F344" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7430,19 +7466,19 @@
         <v>10</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D345" t="s">
         <v>19</v>
       </c>
       <c r="E345" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F345" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7450,19 +7486,19 @@
         <v>10</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D346" t="s">
         <v>20</v>
       </c>
       <c r="E346" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F346" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7470,19 +7506,19 @@
         <v>10</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D347" t="s">
         <v>21</v>
       </c>
       <c r="E347" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F347" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7490,19 +7526,19 @@
         <v>10</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D348" t="s">
         <v>22</v>
       </c>
       <c r="E348" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F348" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7510,16 +7546,16 @@
         <v>10</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D349" t="s">
         <v>23</v>
       </c>
       <c r="E349" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F349" t="s">
         <v>52</v>
@@ -7533,16 +7569,16 @@
         <v>13</v>
       </c>
       <c r="C350" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D350" t="s">
         <v>18</v>
       </c>
       <c r="E350" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F350" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7553,16 +7589,16 @@
         <v>13</v>
       </c>
       <c r="C351" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D351" t="s">
         <v>19</v>
       </c>
       <c r="E351" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F351" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7573,16 +7609,16 @@
         <v>13</v>
       </c>
       <c r="C352" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D352" t="s">
         <v>20</v>
       </c>
       <c r="E352" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F352" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7593,16 +7629,16 @@
         <v>13</v>
       </c>
       <c r="C353" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D353" t="s">
         <v>21</v>
       </c>
       <c r="E353" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F353" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7613,16 +7649,16 @@
         <v>13</v>
       </c>
       <c r="C354" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D354" t="s">
         <v>22</v>
       </c>
       <c r="E354" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F354" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7633,16 +7669,16 @@
         <v>13</v>
       </c>
       <c r="C355" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D355" t="s">
         <v>23</v>
       </c>
       <c r="E355" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F355" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7653,16 +7689,16 @@
         <v>13</v>
       </c>
       <c r="C356" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D356" t="s">
         <v>18</v>
       </c>
       <c r="E356" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F356" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7673,16 +7709,16 @@
         <v>13</v>
       </c>
       <c r="C357" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D357" t="s">
         <v>19</v>
       </c>
       <c r="E357" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F357" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7693,16 +7729,16 @@
         <v>13</v>
       </c>
       <c r="C358" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D358" t="s">
         <v>20</v>
       </c>
       <c r="E358" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F358" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7713,16 +7749,16 @@
         <v>13</v>
       </c>
       <c r="C359" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D359" t="s">
         <v>21</v>
       </c>
       <c r="E359" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F359" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7733,16 +7769,16 @@
         <v>13</v>
       </c>
       <c r="C360" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D360" t="s">
         <v>22</v>
       </c>
       <c r="E360" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F360" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7753,16 +7789,256 @@
         <v>13</v>
       </c>
       <c r="C361" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D361" t="s">
         <v>23</v>
       </c>
       <c r="E361" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F361" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" t="s">
+        <v>13</v>
+      </c>
+      <c r="C362" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" t="s">
+        <v>18</v>
+      </c>
+      <c r="E362" t="s">
+        <v>28</v>
+      </c>
+      <c r="F362" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" t="s">
+        <v>13</v>
+      </c>
+      <c r="C363" t="s">
+        <v>16</v>
+      </c>
+      <c r="D363" t="s">
+        <v>19</v>
+      </c>
+      <c r="E363" t="s">
+        <v>42</v>
+      </c>
+      <c r="F363" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364" t="s">
+        <v>16</v>
+      </c>
+      <c r="D364" t="s">
+        <v>20</v>
+      </c>
+      <c r="E364" t="s">
+        <v>42</v>
+      </c>
+      <c r="F364" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" t="s">
+        <v>21</v>
+      </c>
+      <c r="E365" t="s">
+        <v>46</v>
+      </c>
+      <c r="F365" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" t="s">
+        <v>13</v>
+      </c>
+      <c r="C366" t="s">
+        <v>16</v>
+      </c>
+      <c r="D366" t="s">
+        <v>22</v>
+      </c>
+      <c r="E366" t="s">
+        <v>29</v>
+      </c>
+      <c r="F366" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" t="s">
+        <v>13</v>
+      </c>
+      <c r="C367" t="s">
+        <v>16</v>
+      </c>
+      <c r="D367" t="s">
+        <v>23</v>
+      </c>
+      <c r="E367" t="s">
+        <v>43</v>
+      </c>
+      <c r="F367" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" t="s">
+        <v>13</v>
+      </c>
+      <c r="C368" t="s">
+        <v>17</v>
+      </c>
+      <c r="D368" t="s">
+        <v>18</v>
+      </c>
+      <c r="E368" t="s">
+        <v>28</v>
+      </c>
+      <c r="F368" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s">
+        <v>13</v>
+      </c>
+      <c r="C369" t="s">
+        <v>17</v>
+      </c>
+      <c r="D369" t="s">
+        <v>19</v>
+      </c>
+      <c r="E369" t="s">
+        <v>31</v>
+      </c>
+      <c r="F369" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" t="s">
+        <v>13</v>
+      </c>
+      <c r="C370" t="s">
+        <v>17</v>
+      </c>
+      <c r="D370" t="s">
+        <v>20</v>
+      </c>
+      <c r="E370" t="s">
+        <v>28</v>
+      </c>
+      <c r="F370" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>10</v>
+      </c>
+      <c r="B371" t="s">
+        <v>13</v>
+      </c>
+      <c r="C371" t="s">
+        <v>17</v>
+      </c>
+      <c r="D371" t="s">
+        <v>21</v>
+      </c>
+      <c r="E371" t="s">
+        <v>46</v>
+      </c>
+      <c r="F371" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" t="s">
+        <v>17</v>
+      </c>
+      <c r="D372" t="s">
+        <v>22</v>
+      </c>
+      <c r="E372" t="s">
+        <v>43</v>
+      </c>
+      <c r="F372" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373" t="s">
+        <v>17</v>
+      </c>
+      <c r="D373" t="s">
+        <v>23</v>
+      </c>
+      <c r="E373" t="s">
+        <v>45</v>
+      </c>
+      <c r="F373" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
